--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H2">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I2">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J2">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N2">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O2">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P2">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q2">
-        <v>362.7020471719084</v>
+        <v>2078.122359754425</v>
       </c>
       <c r="R2">
-        <v>3264.318424547175</v>
+        <v>18703.10123778983</v>
       </c>
       <c r="S2">
-        <v>0.1569431863418027</v>
+        <v>0.3352600917060641</v>
       </c>
       <c r="T2">
-        <v>0.1569431863418027</v>
+        <v>0.335260091706064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H3">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I3">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J3">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.883633</v>
       </c>
       <c r="O3">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P3">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q3">
-        <v>220.9105825634639</v>
+        <v>475.9772281285693</v>
       </c>
       <c r="R3">
-        <v>1988.195243071175</v>
+        <v>4283.795053157123</v>
       </c>
       <c r="S3">
-        <v>0.0955892336270749</v>
+        <v>0.07678863008395699</v>
       </c>
       <c r="T3">
-        <v>0.09558923362707496</v>
+        <v>0.07678863008395695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H4">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I4">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J4">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N4">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P4">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q4">
-        <v>84.50279316041946</v>
+        <v>237.8610827360693</v>
       </c>
       <c r="R4">
-        <v>760.5251384437751</v>
+        <v>2140.749744624624</v>
       </c>
       <c r="S4">
-        <v>0.03656482701652003</v>
+        <v>0.03837374062075051</v>
       </c>
       <c r="T4">
-        <v>0.03656482701652004</v>
+        <v>0.0383737406207505</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>135.7046583333333</v>
+        <v>292.391276</v>
       </c>
       <c r="H5">
-        <v>407.113975</v>
+        <v>877.173828</v>
       </c>
       <c r="I5">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912879</v>
       </c>
       <c r="J5">
-        <v>0.2901853119378819</v>
+        <v>0.4546722242912878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N5">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O5">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P5">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q5">
-        <v>2.514562084030556</v>
+        <v>26.34230976490933</v>
       </c>
       <c r="R5">
-        <v>22.631058756275</v>
+        <v>237.080787884184</v>
       </c>
       <c r="S5">
-        <v>0.00108806495248424</v>
+        <v>0.004249761880516355</v>
       </c>
       <c r="T5">
-        <v>0.001088064952484241</v>
+        <v>0.004249761880516354</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,43 +788,43 @@
         <v>226.082006</v>
       </c>
       <c r="H6">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I6">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J6">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N6">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O6">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P6">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q6">
-        <v>604.256385978386</v>
+        <v>1606.840252671335</v>
       </c>
       <c r="R6">
-        <v>5438.307473805474</v>
+        <v>14461.56227404202</v>
       </c>
       <c r="S6">
-        <v>0.2614650877277294</v>
+        <v>0.2592289178444946</v>
       </c>
       <c r="T6">
-        <v>0.2614650877277295</v>
+        <v>0.2592289178444945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>226.082006</v>
       </c>
       <c r="H7">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I7">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J7">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>4.883633</v>
       </c>
       <c r="O7">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P7">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q7">
         <v>368.0338484025993</v>
@@ -883,10 +883,10 @@
         <v>3312.304635623394</v>
       </c>
       <c r="S7">
-        <v>0.159250286289571</v>
+        <v>0.05937430064559431</v>
       </c>
       <c r="T7">
-        <v>0.1592502862895711</v>
+        <v>0.05937430064559429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>226.082006</v>
       </c>
       <c r="H8">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I8">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J8">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N8">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P8">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q8">
-        <v>140.7804361688447</v>
+        <v>183.9183147663493</v>
       </c>
       <c r="R8">
-        <v>1267.023925519602</v>
+        <v>1655.264832897144</v>
       </c>
       <c r="S8">
-        <v>0.06091647510457859</v>
+        <v>0.02967124182344948</v>
       </c>
       <c r="T8">
-        <v>0.06091647510457861</v>
+        <v>0.02967124182344948</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>226.082006</v>
       </c>
       <c r="H9">
-        <v>678.2460179999999</v>
+        <v>678.246018</v>
       </c>
       <c r="I9">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="J9">
-        <v>0.4834445496594811</v>
+        <v>0.3515604499097856</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N9">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O9">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P9">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q9">
-        <v>4.189224210511333</v>
+        <v>20.36833080588934</v>
       </c>
       <c r="R9">
-        <v>37.703017894602</v>
+        <v>183.314977253004</v>
       </c>
       <c r="S9">
-        <v>0.001812700537602019</v>
+        <v>0.003285989596247289</v>
       </c>
       <c r="T9">
-        <v>0.00181270053760202</v>
+        <v>0.003285989596247289</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H10">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I10">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J10">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N10">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O10">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P10">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q10">
-        <v>282.5118317058084</v>
+        <v>883.4398974359212</v>
       </c>
       <c r="R10">
-        <v>2542.606485352275</v>
+        <v>7950.959076923292</v>
       </c>
       <c r="S10">
-        <v>0.1222444355991017</v>
+        <v>0.1425239181133507</v>
       </c>
       <c r="T10">
-        <v>0.1222444355991017</v>
+        <v>0.1425239181133507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H11">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I11">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J11">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>4.883633</v>
       </c>
       <c r="O11">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P11">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q11">
-        <v>172.0692061426973</v>
+        <v>202.3448097875373</v>
       </c>
       <c r="R11">
-        <v>1548.622855284275</v>
+        <v>1821.103288087836</v>
       </c>
       <c r="S11">
-        <v>0.07445529931222004</v>
+        <v>0.03264395821891469</v>
       </c>
       <c r="T11">
-        <v>0.07445529931222007</v>
+        <v>0.03264395821891468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H12">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I12">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J12">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N12">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P12">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q12">
-        <v>65.81997280178614</v>
+        <v>101.1181894800373</v>
       </c>
       <c r="R12">
-        <v>592.3797552160751</v>
+        <v>910.063705320336</v>
       </c>
       <c r="S12">
-        <v>0.02848066708470228</v>
+        <v>0.0163132326251639</v>
       </c>
       <c r="T12">
-        <v>0.02848066708470229</v>
+        <v>0.01631323262516389</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>105.7015583333334</v>
+        <v>124.299764</v>
       </c>
       <c r="H13">
-        <v>317.104675</v>
+        <v>372.899292</v>
       </c>
       <c r="I13">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="J13">
-        <v>0.2260279054086406</v>
+        <v>0.193287744251173</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N13">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O13">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P13">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q13">
-        <v>1.958614642063889</v>
+        <v>11.19849720479733</v>
       </c>
       <c r="R13">
-        <v>17.627531778575</v>
+        <v>100.786474843176</v>
       </c>
       <c r="S13">
-        <v>0.0008475034126165911</v>
+        <v>0.001806635293743781</v>
       </c>
       <c r="T13">
-        <v>0.0008475034126165913</v>
+        <v>0.001806635293743781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H14">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I14">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J14">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2.672731</v>
+        <v>7.107333666666666</v>
       </c>
       <c r="N14">
-        <v>8.018193</v>
+        <v>21.322001</v>
       </c>
       <c r="O14">
-        <v>0.5408378022089502</v>
+        <v>0.7373665550576455</v>
       </c>
       <c r="P14">
-        <v>0.5408378022089503</v>
+        <v>0.7373665550576454</v>
       </c>
       <c r="Q14">
-        <v>0.4277563419846666</v>
+        <v>2.191972776136667</v>
       </c>
       <c r="R14">
-        <v>3.849807077862</v>
+        <v>19.72775498523</v>
       </c>
       <c r="S14">
-        <v>0.0001850925403163453</v>
+        <v>0.0003536273937361497</v>
       </c>
       <c r="T14">
-        <v>0.0001850925403163453</v>
+        <v>0.0003536273937361497</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H15">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I15">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J15">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>4.883633</v>
       </c>
       <c r="O15">
-        <v>0.3294075533620981</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="P15">
-        <v>0.3294075533620982</v>
+        <v>0.1688878844614928</v>
       </c>
       <c r="Q15">
-        <v>0.2605331385357777</v>
+        <v>0.5020537511766666</v>
       </c>
       <c r="R15">
-        <v>2.344798246822</v>
+        <v>4.51848376059</v>
       </c>
       <c r="S15">
-        <v>0.0001127341332321053</v>
+        <v>8.099551302684276E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001127341332321053</v>
+        <v>8.099551302684272E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H16">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I16">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J16">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6226963333333334</v>
+        <v>0.8135026666666666</v>
       </c>
       <c r="N16">
-        <v>1.868089</v>
+        <v>2.440508</v>
       </c>
       <c r="O16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428164</v>
       </c>
       <c r="P16">
-        <v>0.1260050923057995</v>
+        <v>0.08439869112428162</v>
       </c>
       <c r="Q16">
-        <v>0.09965922710288888</v>
+        <v>0.2508923574266667</v>
       </c>
       <c r="R16">
-        <v>0.8969330439259999</v>
+        <v>2.25803121684</v>
       </c>
       <c r="S16">
-        <v>4.312309999859334E-05</v>
+        <v>4.047605491774544E-05</v>
       </c>
       <c r="T16">
-        <v>4.312309999859335E-05</v>
+        <v>4.047605491774544E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1600446666666666</v>
+        <v>0.30841</v>
       </c>
       <c r="H17">
-        <v>0.4801339999999999</v>
+        <v>0.92523</v>
       </c>
       <c r="I17">
-        <v>0.0003422329939962954</v>
+        <v>0.0004795815477534156</v>
       </c>
       <c r="J17">
-        <v>0.0003422329939962955</v>
+        <v>0.0004795815477534155</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.01852966666666667</v>
+        <v>0.09009266666666667</v>
       </c>
       <c r="N17">
-        <v>0.055589</v>
+        <v>0.270278</v>
       </c>
       <c r="O17">
-        <v>0.003749552123152102</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="P17">
-        <v>0.003749552123152104</v>
+        <v>0.009346869356580103</v>
       </c>
       <c r="Q17">
-        <v>0.002965574325111111</v>
+        <v>0.02778547932666667</v>
       </c>
       <c r="R17">
-        <v>0.026690168926</v>
+        <v>0.25006931394</v>
       </c>
       <c r="S17">
-        <v>1.28322044925151E-06</v>
+        <v>4.482586072677657E-06</v>
       </c>
       <c r="T17">
-        <v>1.283220449251511E-06</v>
+        <v>4.482586072677657E-06</v>
       </c>
     </row>
   </sheetData>
